--- a/sourceTranslations.xlsx
+++ b/sourceTranslations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Cegeka\sebachplus.infra\src\create-structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Cegeka\create-structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08C401E-BCDE-45F7-9B90-96BBA5019A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584C3F17-E747-4544-9E09-503F191022C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7206" uniqueCount="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7232" uniqueCount="2008">
   <si>
     <t>Articoli</t>
   </si>
@@ -6006,16 +6006,49 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>CodClientePN</t>
-  </si>
-  <si>
-    <t>AccountnumberPN</t>
-  </si>
-  <si>
-    <t>APartireDal</t>
-  </si>
-  <si>
-    <t>Startingfrom</t>
+    <t>DataIncasso</t>
+  </si>
+  <si>
+    <t>CodFattScadenza</t>
+  </si>
+  <si>
+    <t>ExpiringInvoiceCode</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>ExpiringDate</t>
+  </si>
+  <si>
+    <t>TaxableIncome</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>WithholdingTax</t>
+  </si>
+  <si>
+    <t>ImportoInScadenza</t>
+  </si>
+  <si>
+    <t>ExpiringAmount</t>
+  </si>
+  <si>
+    <t>CollectedDate</t>
+  </si>
+  <si>
+    <t>Insoluto</t>
+  </si>
+  <si>
+    <t>Unpaid</t>
+  </si>
+  <si>
+    <t>Riscossa</t>
+  </si>
+  <si>
+    <t>CollectedInvoice</t>
   </si>
 </sst>
 </file>
@@ -6070,12 +6103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6376,10 +6408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1313"/>
+  <dimension ref="A1:H1318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1283" workbookViewId="0">
-      <selection activeCell="E1298" sqref="E1298"/>
+    <sheetView tabSelected="1" topLeftCell="A1288" workbookViewId="0">
+      <selection activeCell="D1296" sqref="D1296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36211,103 +36243,155 @@
     </row>
     <row r="1290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1290" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="E1290" s="4" t="s">
         <v>1994</v>
+      </c>
+      <c r="E1290" s="1" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="1291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1291" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E1291" s="4" t="s">
-        <v>1912</v>
+        <v>1902</v>
+      </c>
+      <c r="E1291" s="1" t="s">
+        <v>1903</v>
       </c>
     </row>
     <row r="1292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1292" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="E1292" s="4" t="s">
-        <v>591</v>
+        <v>1564</v>
+      </c>
+      <c r="E1292" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="1293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1293" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E1293" s="4" t="s">
-        <v>594</v>
+        <v>1101</v>
+      </c>
+      <c r="E1293" s="1" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="1294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1294" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1294" s="4" t="s">
-        <v>119</v>
+        <v>1906</v>
+      </c>
+      <c r="E1294" s="1" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="1295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1295" s="1" t="s">
-        <v>1995</v>
-      </c>
-      <c r="E1295" s="4" t="s">
-        <v>1996</v>
+        <v>1908</v>
+      </c>
+      <c r="E1295" s="1" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="1296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D1296" s="1"/>
-      <c r="E1296" s="1"/>
+      <c r="D1296" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E1296" s="1" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="1297" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1297" s="1"/>
-      <c r="E1297" s="1"/>
+      <c r="D1297" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E1297" s="1" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row r="1298" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1298" s="1"/>
-      <c r="E1298" s="1"/>
+      <c r="D1298" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E1298" s="1" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="1299" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1299" s="1"/>
-      <c r="E1299" s="1"/>
+      <c r="D1299" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E1299" s="1" t="s">
+        <v>1999</v>
+      </c>
     </row>
     <row r="1300" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1300" s="1"/>
-      <c r="E1300" s="1"/>
+      <c r="D1300" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1300" s="1" t="s">
+        <v>2000</v>
+      </c>
     </row>
     <row r="1301" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1301" s="1"/>
-      <c r="E1301" s="1"/>
+      <c r="D1301" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E1301" s="1" t="s">
+        <v>2002</v>
+      </c>
     </row>
     <row r="1302" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1302" s="1"/>
-      <c r="E1302" s="1"/>
+      <c r="D1302" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E1302" s="1" t="s">
+        <v>2003</v>
+      </c>
     </row>
     <row r="1303" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1303" s="1"/>
-      <c r="E1303" s="1"/>
+      <c r="D1303" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E1303" s="1" t="s">
+        <v>1946</v>
+      </c>
     </row>
     <row r="1304" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1304" s="1"/>
-      <c r="E1304" s="4"/>
+      <c r="D1304" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E1304" s="1" t="s">
+        <v>1948</v>
+      </c>
     </row>
     <row r="1305" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1305" s="1"/>
-      <c r="E1305" s="1"/>
+      <c r="D1305" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E1305" s="1" t="s">
+        <v>2005</v>
+      </c>
     </row>
     <row r="1306" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1306" s="1"/>
-      <c r="E1306" s="1"/>
+      <c r="D1306" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E1306" s="1" t="s">
+        <v>2007</v>
+      </c>
     </row>
     <row r="1307" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1307" s="1"/>
-      <c r="E1307" s="1"/>
+      <c r="D1307" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1307" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="1308" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1308" s="1"/>
-      <c r="E1308" s="1"/>
+      <c r="D1308" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E1308" s="1" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="1309" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D1309" s="1"/>
@@ -36328,6 +36412,26 @@
     <row r="1313" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D1313" s="1"/>
       <c r="E1313" s="1"/>
+    </row>
+    <row r="1314" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D1314" s="1"/>
+      <c r="E1314" s="1"/>
+    </row>
+    <row r="1315" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D1315" s="1"/>
+      <c r="E1315" s="1"/>
+    </row>
+    <row r="1316" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D1316" s="1"/>
+      <c r="E1316" s="1"/>
+    </row>
+    <row r="1317" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D1317" s="1"/>
+      <c r="E1317" s="1"/>
+    </row>
+    <row r="1318" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D1318" s="1"/>
+      <c r="E1318" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
